--- a/pred_ohlcv/54_21/2019-10-25 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 BSV ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>52.22639845999998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-40.62040154000002</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-28.41147678000003</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>7.732123219999973</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-22.48427678000003</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-22.48427678000003</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>12.60982321999997</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>12.60982321999997</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>131.46892322</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>131.46892322</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>125.84052322</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>125.90352322</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>126.28942322</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>117.30482322</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>180.71902322</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>180.71902322</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>180.71902322</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>194.89632322</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>205.01452322</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>232.51039609</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>237.53049609</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>193.30839609</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>138.72319609</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>116.99869609</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>110.97859609</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>116.95256301</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>116.37886301</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>178.13856301</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>178.13856301</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>334.49014607</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>270.14534607</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>281.8336460699999</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>280.8594460699999</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>280.8594460699999</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>295.5078460699999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>293.6317460699999</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>314.7547625599999</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>314.7547625599999</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>314.7547625599999</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>325.6991625599999</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>491.5051625599999</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1788.06923736</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1702.179699759999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1724.712599759999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1656.276899759999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1656.276899759999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1651.164899759999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1515.123599759999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1625.986599759999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>4131.5437291</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1813.824271879999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1828.969571879999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1827.953371879999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1729.679971879999</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1791.836971879999</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1921.059371879999</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1803.160071879999</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1764.772674939999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1976.400074939999</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>9653.310902929998</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>10454.95866346</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>10610.31296346</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>10610.31296346</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>11186.29256346</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>10948.29576155</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>11172.92536155</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>10929.97656155</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>10757.55756155</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>10740.64138611</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>10740.64138611</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>10666.97248611</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>10666.97248611</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>10720.82279015</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>10693.66579015</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>10693.66579015</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>10493.13909015</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>10494.77759015</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>10640.60475167</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>10604.14745167</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>10453.08701319</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>10484.48561319</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>10484.48561319</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>10484.48561319</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>10484.48561319</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>10484.48561319</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>10484.58561319</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>10484.58561319</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>10527.22831319</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>10555.41781319</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>10491.32271319</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>10539.08561319</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>10519.73711319</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>10519.73711319</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>10544.13831319</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>10544.13831319</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>10536.90031319</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>10421.39991319</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>10457.76111319</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>10388.30091319</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-25 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 BSV ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>52.22639845999998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>52.22639845999998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-43.18450154000001</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-54.60580154000002</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-54.60580154000002</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-66.60580154000002</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-105.50410154</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-105.50410154</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-25.20147678000003</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1788.06923736</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1702.179699759999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1724.712599759999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1656.276899759999</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1656.276899759999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1651.164899759999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1515.123599759999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1625.986599759999</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>4131.5437291</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1813.824271879999</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1828.969571879999</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1827.953371879999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1729.679971879999</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1791.836971879999</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1921.059371879999</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1803.160071879999</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1764.772674939999</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1976.400074939999</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>10026.00877873</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>9733.719576269998</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>9915.084111229997</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>9653.310902929998</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>9717.579802929997</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>10454.95866346</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>10454.95866346</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>10610.31296346</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>10610.31296346</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>11186.29256346</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>10948.29576155</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>11172.92536155</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>10929.97656155</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>10757.55756155</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>10740.64138611</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>10740.64138611</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>10666.97248611</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>10666.97248611</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>10720.82279015</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>10693.66579015</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>10693.66579015</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>10493.13909015</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>10494.77759015</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>10640.60475167</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>10604.14745167</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>10453.08701319</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>10484.48561319</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>10484.48561319</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>10484.48561319</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>10484.48561319</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>10484.48561319</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>10484.58561319</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>10484.58561319</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>10527.22831319</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>10555.41781319</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>10491.32271319</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>10539.08561319</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>10519.73711319</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>10519.73711319</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>10544.13831319</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>10544.13831319</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>10536.90031319</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>10421.39991319</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>10457.76111319</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>10388.30091319</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>10310.79191319</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
